--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102Q2廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102Q2廣宣彙整表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t xml:space="preserve"> 102年水土保持及農村再生教育-教材教案設計比賽</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>植樹造林綠美化宣導</t>
+  </si>
+  <si>
+    <t>民國年</t>
   </si>
   <si>
     <t>水保局</t>
@@ -781,1448 +784,1662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="4" max="4" width="9.10"/>
-    <col min="5" max="5" width="9.10"/>
-    <col min="6" max="6" width="9.10"/>
-    <col min="7" max="7" width="9.10"/>
+    <col max="1" min="1" width="9.10"/>
+    <col max="2" min="2" width="9.10"/>
+    <col max="3" min="3" width="9.10"/>
+    <col max="4" min="4" width="9.10"/>
+    <col max="5" min="5" width="9.10"/>
+    <col max="6" min="6" width="9.10"/>
+    <col max="7" min="7" width="9.10"/>
+    <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:7" r="1">
-      <c s="1" t="s" r="A1">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1" s="1">
         <v>26</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c t="s" r="B1" s="1">
         <v>53</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c t="s" r="C1" s="1">
+        <v>77</v>
+      </c>
+      <c t="s" r="D1" s="1">
         <v>72</v>
       </c>
-      <c s="1" t="s" r="D1">
-        <v>107</v>
-      </c>
-      <c s="1" t="s" r="E1">
+      <c t="s" r="E1" s="1">
+        <v>108</v>
+      </c>
+      <c t="s" r="F1" s="1">
         <v>37</v>
       </c>
-      <c s="1" t="s" r="F1">
-        <v>89</v>
-      </c>
-      <c s="1" t="s" r="G1">
+      <c t="s" r="G1" s="1">
+        <v>90</v>
+      </c>
+      <c t="s" r="H1" s="1">
         <v>28</v>
       </c>
     </row>
-    <row spans="1:7" r="2">
+    <row spans="1:8" r="2">
       <c t="s" r="A2">
         <v>7</v>
       </c>
       <c t="s" r="B2">
-        <v>115</v>
-      </c>
-      <c t="s" r="C2">
+        <v>116</v>
+      </c>
+      <c t="n" r="C2">
+        <v>102</v>
+      </c>
+      <c t="s" r="D2">
         <v>14</v>
       </c>
-      <c t="n" r="D2">
+      <c t="n" r="E2">
         <v>445974.0</v>
       </c>
-      <c t="s" r="E2">
-        <v>100</v>
-      </c>
       <c t="s" r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="3">
+        <v>101</v>
+      </c>
+      <c t="s" r="G2">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="3">
       <c t="s" r="A3">
         <v>56</v>
       </c>
       <c t="s" r="B3">
         <v>51</v>
       </c>
-      <c t="s" r="C3">
+      <c t="n" r="C3">
+        <v>102</v>
+      </c>
+      <c t="s" r="D3">
         <v>16</v>
       </c>
-      <c t="n" r="D3">
+      <c t="n" r="E3">
         <v>451050.0</v>
       </c>
-      <c t="s" r="E3">
-        <v>100</v>
-      </c>
       <c t="s" r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="4">
+        <v>101</v>
+      </c>
+      <c t="s" r="G3">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="4">
       <c t="s" r="A4">
         <v>24</v>
       </c>
       <c t="s" r="B4">
         <v>45</v>
       </c>
-      <c t="s" r="C4">
+      <c t="n" r="C4">
+        <v>102</v>
+      </c>
+      <c t="s" r="D4">
         <v>15</v>
       </c>
-      <c t="n" r="D4">
+      <c t="n" r="E4">
         <v>364966.0</v>
       </c>
-      <c t="s" r="E4">
-        <v>100</v>
-      </c>
       <c t="s" r="F4">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="5">
+        <v>101</v>
+      </c>
+      <c t="s" r="G4">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="5">
       <c t="s" r="A5">
         <v>24</v>
       </c>
       <c t="s" r="B5">
         <v>63</v>
       </c>
-      <c t="s" r="C5">
+      <c t="n" r="C5">
+        <v>102</v>
+      </c>
+      <c t="s" r="D5">
         <v>13</v>
       </c>
-      <c t="n" r="D5">
+      <c t="n" r="E5">
         <v>0.0</v>
       </c>
-      <c t="s" r="E5">
-        <v>100</v>
-      </c>
       <c t="s" r="F5">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="G5">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="6">
       <c t="s" r="A6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="B6">
         <v>52</v>
       </c>
-      <c t="s" r="C6">
+      <c t="n" r="C6">
+        <v>102</v>
+      </c>
+      <c t="s" r="D6">
         <v>19</v>
       </c>
-      <c t="n" r="D6">
+      <c t="n" r="E6">
         <v>379000.0</v>
       </c>
-      <c t="s" r="E6">
-        <v>100</v>
-      </c>
       <c t="s" r="F6">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="7">
+        <v>101</v>
+      </c>
+      <c t="s" r="G6">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="7">
       <c t="s" r="A7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="B7">
-        <v>122</v>
-      </c>
-      <c t="s" r="C7">
+        <v>123</v>
+      </c>
+      <c t="n" r="C7">
+        <v>102</v>
+      </c>
+      <c t="s" r="D7">
         <v>17</v>
       </c>
-      <c t="n" r="D7">
+      <c t="n" r="E7">
         <v>278820.0</v>
       </c>
-      <c t="s" r="E7">
-        <v>100</v>
-      </c>
       <c t="s" r="F7">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="8">
+        <v>101</v>
+      </c>
+      <c t="s" r="G7">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="8">
       <c t="s" r="A8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="B8">
         <v>57</v>
       </c>
-      <c t="s" r="C8">
+      <c t="n" r="C8">
+        <v>102</v>
+      </c>
+      <c t="s" r="D8">
         <v>18</v>
       </c>
-      <c t="n" r="D8">
+      <c t="n" r="E8">
         <v>145930.0</v>
       </c>
-      <c t="s" r="E8">
-        <v>100</v>
-      </c>
       <c t="s" r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="9">
+        <v>101</v>
+      </c>
+      <c t="s" r="G8">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="9">
       <c t="s" r="A9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="B9">
         <v>64</v>
       </c>
-      <c t="s" r="C9">
+      <c t="n" r="C9">
+        <v>102</v>
+      </c>
+      <c t="s" r="D9">
         <v>18</v>
       </c>
-      <c t="n" r="D9">
+      <c t="n" r="E9">
         <v>286800.0</v>
       </c>
-      <c t="s" r="E9">
-        <v>100</v>
-      </c>
       <c t="s" r="F9">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="10">
+        <v>101</v>
+      </c>
+      <c t="s" r="G9">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="10">
       <c t="s" r="A10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="B10">
         <v>38</v>
       </c>
-      <c t="s" r="C10">
+      <c t="n" r="C10">
+        <v>102</v>
+      </c>
+      <c t="s" r="D10">
         <v>12</v>
       </c>
-      <c t="n" r="D10">
+      <c t="n" r="E10">
         <v>147000.0</v>
       </c>
-      <c t="s" r="E10">
-        <v>100</v>
-      </c>
       <c t="s" r="F10">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="G10">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="11">
       <c t="s" r="A11">
         <v>29</v>
       </c>
       <c t="s" r="B11">
         <v>40</v>
       </c>
-      <c t="s" r="C11">
+      <c t="n" r="C11">
+        <v>102</v>
+      </c>
+      <c t="s" r="D11">
         <v>17</v>
       </c>
-      <c t="n" r="D11">
+      <c t="n" r="E11">
         <v>2355090.0</v>
       </c>
-      <c t="s" r="E11">
-        <v>100</v>
-      </c>
       <c t="s" r="F11">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="12">
+        <v>101</v>
+      </c>
+      <c t="s" r="G11">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="12">
       <c t="s" r="A12">
         <v>29</v>
       </c>
       <c t="s" r="B12">
-        <v>123</v>
-      </c>
-      <c t="s" r="C12">
+        <v>124</v>
+      </c>
+      <c t="n" r="C12">
+        <v>102</v>
+      </c>
+      <c t="s" r="D12">
         <v>17</v>
       </c>
-      <c t="n" r="D12">
+      <c t="n" r="E12">
         <v>7373400.0</v>
       </c>
-      <c t="s" r="E12">
-        <v>100</v>
-      </c>
       <c t="s" r="F12">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="13">
+        <v>101</v>
+      </c>
+      <c t="s" r="G12">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="13">
       <c t="s" r="A13">
         <v>29</v>
       </c>
       <c t="s" r="B13">
-        <v>114</v>
-      </c>
-      <c t="s" r="C13">
+        <v>115</v>
+      </c>
+      <c t="n" r="C13">
+        <v>102</v>
+      </c>
+      <c t="s" r="D13">
         <v>17</v>
       </c>
-      <c t="n" r="D13">
+      <c t="n" r="E13">
         <v>288248.0</v>
       </c>
-      <c t="s" r="E13">
-        <v>100</v>
-      </c>
       <c t="s" r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="14">
+        <v>101</v>
+      </c>
+      <c t="s" r="G13">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="14">
       <c t="s" r="A14">
         <v>29</v>
       </c>
       <c t="s" r="B14">
         <v>58</v>
       </c>
-      <c t="s" r="C14">
+      <c t="n" r="C14">
+        <v>102</v>
+      </c>
+      <c t="s" r="D14">
         <v>17</v>
       </c>
-      <c t="n" r="D14">
+      <c t="n" r="E14">
         <v>161666.0</v>
       </c>
-      <c t="s" r="E14">
-        <v>100</v>
-      </c>
       <c t="s" r="F14">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="15">
+        <v>101</v>
+      </c>
+      <c t="s" r="G14">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="15">
       <c t="s" r="A15">
         <v>29</v>
       </c>
       <c t="s" r="B15">
-        <v>83</v>
-      </c>
-      <c t="s" r="C15">
+        <v>84</v>
+      </c>
+      <c t="n" r="C15">
+        <v>102</v>
+      </c>
+      <c t="s" r="D15">
         <v>17</v>
       </c>
-      <c t="n" r="D15">
+      <c t="n" r="E15">
         <v>896234.0</v>
       </c>
-      <c t="s" r="E15">
-        <v>100</v>
-      </c>
       <c t="s" r="F15">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="16">
+        <v>101</v>
+      </c>
+      <c t="s" r="G15">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="16">
       <c t="s" r="A16">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="B16">
         <v>43</v>
       </c>
-      <c t="s" r="C16">
+      <c t="n" r="C16">
+        <v>102</v>
+      </c>
+      <c t="s" r="D16">
         <v>20</v>
       </c>
-      <c t="n" r="D16">
+      <c t="n" r="E16">
         <v>0.0</v>
       </c>
-      <c t="s" r="E16">
-        <v>100</v>
-      </c>
       <c t="s" r="F16">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="17">
+        <v>101</v>
+      </c>
+      <c t="s" r="G16">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="17">
       <c t="s" r="A17">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="B17">
         <v>43</v>
       </c>
-      <c t="s" r="C17">
+      <c t="n" r="C17">
+        <v>102</v>
+      </c>
+      <c t="s" r="D17">
         <v>20</v>
       </c>
-      <c t="n" r="D17">
+      <c t="n" r="E17">
         <v>0.0</v>
       </c>
-      <c t="s" r="E17">
-        <v>100</v>
-      </c>
       <c t="s" r="F17">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="18">
+        <v>101</v>
+      </c>
+      <c t="s" r="G17">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="18">
       <c t="s" r="A18">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="B18">
-        <v>116</v>
-      </c>
-      <c t="s" r="C18">
+        <v>117</v>
+      </c>
+      <c t="n" r="C18">
+        <v>102</v>
+      </c>
+      <c t="s" r="D18">
         <v>20</v>
       </c>
-      <c t="n" r="D18">
+      <c t="n" r="E18">
         <v>0.0</v>
       </c>
-      <c t="s" r="E18">
-        <v>100</v>
-      </c>
       <c t="s" r="F18">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="19">
+        <v>101</v>
+      </c>
+      <c t="s" r="G18">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="19">
       <c t="s" r="A19">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="B19">
         <v>42</v>
       </c>
-      <c t="s" r="C19">
+      <c t="n" r="C19">
+        <v>102</v>
+      </c>
+      <c t="s" r="D19">
         <v>20</v>
       </c>
-      <c t="n" r="D19">
+      <c t="n" r="E19">
         <v>40200.0</v>
       </c>
-      <c t="s" r="E19">
-        <v>100</v>
-      </c>
       <c t="s" r="F19">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="20">
+        <v>101</v>
+      </c>
+      <c t="s" r="G19">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="20">
       <c t="s" r="A20">
         <v>30</v>
       </c>
       <c t="s" r="B20">
         <v>69</v>
       </c>
-      <c t="s" r="C20">
+      <c t="n" r="C20">
+        <v>102</v>
+      </c>
+      <c t="s" r="D20">
         <v>11</v>
       </c>
-      <c t="n" r="D20">
+      <c t="n" r="E20">
         <v>352000.0</v>
       </c>
-      <c t="s" r="E20">
-        <v>100</v>
-      </c>
       <c t="s" r="F20">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="21">
+        <v>101</v>
+      </c>
+      <c t="s" r="G20">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="21">
       <c t="s" r="A21">
         <v>34</v>
       </c>
       <c t="s" r="B21">
-        <v>125</v>
-      </c>
-      <c t="s" r="C21">
+        <v>126</v>
+      </c>
+      <c t="n" r="C21">
+        <v>102</v>
+      </c>
+      <c t="s" r="D21">
         <v>20</v>
       </c>
-      <c t="n" r="D21">
+      <c t="n" r="E21">
         <v>1974800.0</v>
       </c>
-      <c t="s" r="E21">
-        <v>100</v>
-      </c>
       <c t="s" r="F21">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="22">
+        <v>101</v>
+      </c>
+      <c t="s" r="G21">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="22">
       <c t="s" r="A22">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="B22">
         <v>39</v>
       </c>
-      <c t="s" r="C22">
+      <c t="n" r="C22">
+        <v>102</v>
+      </c>
+      <c t="s" r="D22">
         <v>21</v>
       </c>
-      <c t="n" r="D22">
+      <c t="n" r="E22">
         <v>464000.0</v>
       </c>
-      <c t="s" r="E22">
-        <v>100</v>
-      </c>
       <c t="s" r="F22">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="23">
+        <v>101</v>
+      </c>
+      <c t="s" r="G22">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="23">
       <c t="s" r="A23">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="B23">
         <v>50</v>
       </c>
-      <c t="s" r="C23">
+      <c t="n" r="C23">
+        <v>102</v>
+      </c>
+      <c t="s" r="D23">
         <v>22</v>
       </c>
-      <c t="n" r="D23">
+      <c t="n" r="E23">
         <v>457750.0</v>
       </c>
-      <c t="s" r="E23">
-        <v>100</v>
-      </c>
       <c t="s" r="F23">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="24">
+        <v>101</v>
+      </c>
+      <c t="s" r="G23">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="24">
       <c t="s" r="A24">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="B24">
-        <v>124</v>
-      </c>
-      <c t="s" r="C24">
+        <v>125</v>
+      </c>
+      <c t="n" r="C24">
+        <v>102</v>
+      </c>
+      <c t="s" r="D24">
         <v>23</v>
       </c>
-      <c t="n" r="D24">
+      <c t="n" r="E24">
         <v>250800.0</v>
       </c>
-      <c t="s" r="E24">
-        <v>100</v>
-      </c>
       <c t="s" r="F24">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="25">
+        <v>101</v>
+      </c>
+      <c t="s" r="G24">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="25">
       <c t="s" r="A25">
         <v>36</v>
       </c>
       <c t="s" r="B25">
         <v>50</v>
       </c>
-      <c t="s" r="C25">
+      <c t="n" r="C25">
+        <v>102</v>
+      </c>
+      <c t="s" r="D25">
         <v>22</v>
       </c>
-      <c t="n" r="D25">
+      <c t="n" r="E25">
         <v>457750.0</v>
       </c>
-      <c t="s" r="E25">
-        <v>100</v>
-      </c>
       <c t="s" r="F25">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="26">
+        <v>101</v>
+      </c>
+      <c t="s" r="G25">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="26">
       <c t="s" r="A26">
         <v>36</v>
       </c>
       <c t="s" r="B26">
-        <v>124</v>
-      </c>
-      <c t="s" r="C26">
+        <v>125</v>
+      </c>
+      <c t="n" r="C26">
+        <v>102</v>
+      </c>
+      <c t="s" r="D26">
         <v>23</v>
       </c>
-      <c t="n" r="D26">
+      <c t="n" r="E26">
         <v>250800.0</v>
       </c>
-      <c t="s" r="E26">
-        <v>100</v>
-      </c>
       <c t="s" r="F26">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="27">
+        <v>101</v>
+      </c>
+      <c t="s" r="G26">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="27">
       <c t="s" r="A27">
         <v>36</v>
       </c>
       <c t="s" r="B27">
-        <v>84</v>
-      </c>
-      <c t="s" r="C27">
+        <v>85</v>
+      </c>
+      <c t="n" r="C27">
+        <v>102</v>
+      </c>
+      <c t="s" r="D27">
         <v>23</v>
       </c>
-      <c t="n" r="D27">
+      <c t="n" r="E27">
         <v>57750.0</v>
       </c>
-      <c t="s" r="E27">
-        <v>100</v>
-      </c>
       <c t="s" r="F27">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="28">
+        <v>101</v>
+      </c>
+      <c t="s" r="G27">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="28">
       <c t="s" r="A28">
         <v>6</v>
       </c>
       <c t="s" r="B28">
-        <v>127</v>
-      </c>
-      <c t="s" r="C28">
+        <v>128</v>
+      </c>
+      <c t="n" r="C28">
+        <v>102</v>
+      </c>
+      <c t="s" r="D28">
         <v>12</v>
       </c>
-      <c t="n" r="D28">
+      <c t="n" r="E28">
         <v>61500.0</v>
       </c>
-      <c t="s" r="E28">
-        <v>100</v>
-      </c>
       <c t="s" r="F28">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="29">
+        <v>101</v>
+      </c>
+      <c t="s" r="G28">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="29">
       <c t="s" r="A29">
         <v>2</v>
       </c>
       <c t="s" r="B29">
         <v>48</v>
       </c>
-      <c t="s" r="C29">
+      <c t="n" r="C29">
+        <v>102</v>
+      </c>
+      <c t="s" r="D29">
         <v>18</v>
       </c>
-      <c t="n" r="D29">
+      <c t="n" r="E29">
         <v>327750.0</v>
       </c>
-      <c t="s" r="E29">
-        <v>77</v>
-      </c>
       <c t="s" r="F29">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="30">
+        <v>78</v>
+      </c>
+      <c t="s" r="G29">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="30">
       <c t="s" r="A30">
         <v>2</v>
       </c>
       <c t="s" r="B30">
-        <v>112</v>
-      </c>
-      <c t="s" r="C30">
+        <v>113</v>
+      </c>
+      <c t="n" r="C30">
+        <v>102</v>
+      </c>
+      <c t="s" r="D30">
         <v>18</v>
       </c>
-      <c t="n" r="D30">
+      <c t="n" r="E30">
         <v>146000.0</v>
       </c>
-      <c t="s" r="E30">
-        <v>77</v>
-      </c>
       <c t="s" r="F30">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="31">
+        <v>78</v>
+      </c>
+      <c t="s" r="G30">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="31">
       <c t="s" r="A31">
         <v>2</v>
       </c>
       <c t="s" r="B31">
         <v>69</v>
       </c>
-      <c t="s" r="C31">
+      <c t="n" r="C31">
+        <v>102</v>
+      </c>
+      <c t="s" r="D31">
         <v>18</v>
       </c>
-      <c t="n" r="D31">
+      <c t="n" r="E31">
         <v>20417.0</v>
       </c>
-      <c t="s" r="E31">
-        <v>77</v>
-      </c>
       <c t="s" r="F31">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="32">
+        <v>78</v>
+      </c>
+      <c t="s" r="G31">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="32">
       <c t="s" r="A32">
         <v>35</v>
       </c>
       <c t="s" r="B32">
         <v>46</v>
       </c>
-      <c t="s" r="C32">
+      <c t="n" r="C32">
+        <v>102</v>
+      </c>
+      <c t="s" r="D32">
         <v>20</v>
       </c>
-      <c t="n" r="D32">
+      <c t="n" r="E32">
         <v>30000.0</v>
       </c>
-      <c t="s" r="E32">
-        <v>77</v>
-      </c>
       <c t="s" r="F32">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="33">
+        <v>78</v>
+      </c>
+      <c t="s" r="G32">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="33">
       <c t="s" r="A33">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="B33">
-        <v>111</v>
-      </c>
-      <c t="s" r="C33">
+        <v>112</v>
+      </c>
+      <c t="n" r="C33">
+        <v>102</v>
+      </c>
+      <c t="s" r="D33">
         <v>12</v>
       </c>
-      <c t="n" r="D33">
+      <c t="n" r="E33">
         <v>8400.0</v>
       </c>
-      <c t="s" r="E33">
-        <v>77</v>
-      </c>
       <c t="s" r="F33">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="34">
+        <v>78</v>
+      </c>
+      <c t="s" r="G33">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="34">
       <c t="s" r="A34">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="B34">
         <v>69</v>
       </c>
-      <c t="s" r="C34">
+      <c t="n" r="C34">
+        <v>102</v>
+      </c>
+      <c t="s" r="D34">
         <v>12</v>
       </c>
-      <c t="n" r="D34">
+      <c t="n" r="E34">
         <v>20417.0</v>
       </c>
-      <c t="s" r="E34">
-        <v>77</v>
-      </c>
       <c t="s" r="F34">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="35">
+        <v>78</v>
+      </c>
+      <c t="s" r="G34">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="35">
       <c t="s" r="A35">
         <v>3</v>
       </c>
       <c t="s" r="B35">
-        <v>111</v>
-      </c>
-      <c t="s" r="C35">
+        <v>112</v>
+      </c>
+      <c t="n" r="C35">
+        <v>102</v>
+      </c>
+      <c t="s" r="D35">
         <v>20</v>
       </c>
-      <c t="n" r="D35">
+      <c t="n" r="E35">
         <v>8400.0</v>
       </c>
-      <c t="s" r="E35">
-        <v>77</v>
-      </c>
       <c t="s" r="F35">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="36">
+        <v>78</v>
+      </c>
+      <c t="s" r="G35">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="36">
       <c t="s" r="A36">
         <v>3</v>
       </c>
       <c t="s" r="B36">
         <v>69</v>
       </c>
-      <c t="s" r="C36">
+      <c t="n" r="C36">
+        <v>102</v>
+      </c>
+      <c t="s" r="D36">
         <v>20</v>
       </c>
-      <c t="n" r="D36">
+      <c t="n" r="E36">
         <v>20417.0</v>
       </c>
-      <c t="s" r="E36">
-        <v>77</v>
-      </c>
       <c t="s" r="F36">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="37">
+        <v>78</v>
+      </c>
+      <c t="s" r="G36">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="37">
       <c t="s" r="A37">
         <v>0</v>
       </c>
       <c t="s" r="B37">
-        <v>117</v>
-      </c>
-      <c t="s" r="C37">
+        <v>118</v>
+      </c>
+      <c t="n" r="C37">
+        <v>102</v>
+      </c>
+      <c t="s" r="D37">
         <v>20</v>
       </c>
-      <c t="n" r="D37">
+      <c t="n" r="E37">
         <v>98500.0</v>
       </c>
-      <c t="s" r="E37">
-        <v>77</v>
-      </c>
       <c t="s" r="F37">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="38">
+        <v>78</v>
+      </c>
+      <c t="s" r="G37">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="38">
       <c t="s" r="A38">
         <v>0</v>
       </c>
       <c t="s" r="B38">
         <v>69</v>
       </c>
-      <c t="s" r="C38">
+      <c t="n" r="C38">
+        <v>102</v>
+      </c>
+      <c t="s" r="D38">
         <v>20</v>
       </c>
-      <c t="n" r="D38">
+      <c t="n" r="E38">
         <v>20417.0</v>
       </c>
-      <c t="s" r="E38">
-        <v>77</v>
-      </c>
       <c t="s" r="F38">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="39">
+        <v>78</v>
+      </c>
+      <c t="s" r="G38">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="39">
       <c t="s" r="A39">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="B39">
         <v>69</v>
       </c>
-      <c t="s" r="C39">
+      <c t="n" r="C39">
+        <v>102</v>
+      </c>
+      <c t="s" r="D39">
         <v>20</v>
       </c>
-      <c t="n" r="D39">
+      <c t="n" r="E39">
         <v>20417.0</v>
       </c>
-      <c t="s" r="E39">
-        <v>77</v>
-      </c>
       <c t="s" r="F39">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="40">
+        <v>78</v>
+      </c>
+      <c t="s" r="G39">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="40">
       <c t="s" r="A40">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="B40">
-        <v>126</v>
-      </c>
-      <c t="s" r="C40">
+        <v>127</v>
+      </c>
+      <c t="n" r="C40">
+        <v>102</v>
+      </c>
+      <c t="s" r="D40">
         <v>18</v>
       </c>
-      <c t="n" r="D40">
+      <c t="n" r="E40">
         <v>2000.0</v>
       </c>
-      <c t="s" r="E40">
-        <v>77</v>
-      </c>
       <c t="s" r="F40">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="41">
+        <v>78</v>
+      </c>
+      <c t="s" r="G40">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="41">
       <c t="s" r="A41">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="B41">
         <v>62</v>
       </c>
-      <c t="s" r="C41">
+      <c t="n" r="C41">
+        <v>102</v>
+      </c>
+      <c t="s" r="D41">
         <v>20</v>
       </c>
-      <c t="n" r="D41">
+      <c t="n" r="E41">
         <v>4200.0</v>
       </c>
-      <c t="s" r="E41">
-        <v>77</v>
-      </c>
       <c t="s" r="F41">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="42">
+        <v>78</v>
+      </c>
+      <c t="s" r="G41">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="42">
       <c t="s" r="A42">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="B42">
         <v>41</v>
       </c>
-      <c t="s" r="C42">
+      <c t="n" r="C42">
+        <v>102</v>
+      </c>
+      <c t="s" r="D42">
         <v>10</v>
       </c>
-      <c t="n" r="D42">
+      <c t="n" r="E42">
         <v>8000.0</v>
       </c>
-      <c t="s" r="E42">
+      <c t="s" r="F42">
         <v>74</v>
       </c>
-      <c t="s" r="F42">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="43">
+      <c t="s" r="G42">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="43">
       <c t="s" r="A43">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="B43">
-        <v>111</v>
-      </c>
-      <c t="s" r="C43">
+        <v>112</v>
+      </c>
+      <c t="n" r="C43">
+        <v>102</v>
+      </c>
+      <c t="s" r="D43">
         <v>12</v>
       </c>
-      <c t="n" r="D43">
+      <c t="n" r="E43">
         <v>8300.0</v>
       </c>
-      <c t="s" r="E43">
+      <c t="s" r="F43">
         <v>74</v>
       </c>
-      <c t="s" r="F43">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="44">
+      <c t="s" r="G43">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="44">
       <c t="s" r="A44">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="B44">
         <v>70</v>
       </c>
-      <c t="s" r="C44">
+      <c t="n" r="C44">
+        <v>102</v>
+      </c>
+      <c t="s" r="D44">
         <v>5</v>
       </c>
-      <c t="n" r="D44">
+      <c t="n" r="E44">
         <v>112000.0</v>
       </c>
-      <c t="s" r="E44">
+      <c t="s" r="F44">
         <v>74</v>
       </c>
-      <c t="s" r="F44">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="45">
+      <c t="s" r="G44">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="45">
       <c t="s" r="A45">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="B45">
-        <v>128</v>
-      </c>
-      <c t="s" r="C45">
+        <v>129</v>
+      </c>
+      <c t="n" r="C45">
+        <v>102</v>
+      </c>
+      <c t="s" r="D45">
         <v>5</v>
       </c>
-      <c t="n" r="D45">
+      <c t="n" r="E45">
         <v>65250.0</v>
       </c>
-      <c t="s" r="E45">
+      <c t="s" r="F45">
         <v>74</v>
       </c>
-      <c t="s" r="F45">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="46">
+      <c t="s" r="G45">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="46">
       <c t="s" r="A46">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="B46">
-        <v>86</v>
-      </c>
-      <c t="s" r="C46">
+        <v>87</v>
+      </c>
+      <c t="n" r="C46">
+        <v>102</v>
+      </c>
+      <c t="s" r="D46">
         <v>9</v>
       </c>
-      <c t="n" r="D46">
+      <c t="n" r="E46">
         <v>13000.0</v>
       </c>
-      <c t="s" r="E46">
+      <c t="s" r="F46">
         <v>74</v>
       </c>
-      <c t="s" r="F46">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="47">
+      <c t="s" r="G46">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="47">
       <c t="s" r="A47">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="B47">
-        <v>111</v>
-      </c>
-      <c t="s" r="C47">
+        <v>112</v>
+      </c>
+      <c t="n" r="C47">
+        <v>102</v>
+      </c>
+      <c t="s" r="D47">
         <v>20</v>
       </c>
-      <c t="n" r="D47">
+      <c t="n" r="E47">
         <v>8300.0</v>
       </c>
-      <c t="s" r="E47">
+      <c t="s" r="F47">
         <v>74</v>
       </c>
-      <c t="s" r="F47">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="48">
+      <c t="s" r="G47">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="48">
       <c t="s" r="A48">
         <v>76</v>
       </c>
       <c t="s" r="B48">
-        <v>111</v>
-      </c>
-      <c t="s" r="C48">
+        <v>112</v>
+      </c>
+      <c t="n" r="C48">
+        <v>102</v>
+      </c>
+      <c t="s" r="D48">
         <v>18</v>
       </c>
-      <c t="n" r="D48">
+      <c t="n" r="E48">
         <v>8300.0</v>
       </c>
-      <c t="s" r="E48">
+      <c t="s" r="F48">
         <v>74</v>
       </c>
-      <c t="s" r="F48">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="49">
+      <c t="s" r="G48">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="49">
       <c t="s" r="A49">
         <v>33</v>
       </c>
       <c t="s" r="B49">
         <v>49</v>
       </c>
-      <c t="s" r="C49">
+      <c t="n" r="C49">
+        <v>102</v>
+      </c>
+      <c t="s" r="D49">
         <v>8</v>
       </c>
-      <c t="n" r="D49">
+      <c t="n" r="E49">
         <v>286000.0</v>
       </c>
-      <c t="s" r="E49">
+      <c t="s" r="F49">
         <v>74</v>
       </c>
-      <c t="s" r="F49">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="50">
+      <c t="s" r="G49">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="50">
       <c t="s" r="A50">
         <v>33</v>
       </c>
       <c t="s" r="B50">
         <v>59</v>
       </c>
-      <c t="s" r="C50">
+      <c t="n" r="C50">
+        <v>102</v>
+      </c>
+      <c t="s" r="D50">
         <v>8</v>
       </c>
-      <c t="n" r="D50">
+      <c t="n" r="E50">
         <v>99000.0</v>
       </c>
-      <c t="s" r="E50">
+      <c t="s" r="F50">
         <v>74</v>
       </c>
-      <c t="s" r="F50">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="51">
+      <c t="s" r="G50">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="51">
       <c t="s" r="A51">
         <v>75</v>
       </c>
       <c t="s" r="B51">
-        <v>85</v>
-      </c>
-      <c t="s" r="C51">
+        <v>86</v>
+      </c>
+      <c t="n" r="C51">
+        <v>102</v>
+      </c>
+      <c t="s" r="D51">
         <v>11</v>
       </c>
-      <c t="n" r="D51">
+      <c t="n" r="E51">
         <v>11949.0</v>
       </c>
-      <c t="s" r="E51">
+      <c t="s" r="F51">
         <v>74</v>
       </c>
-      <c t="s" r="F51">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="52">
+      <c t="s" r="G51">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="52">
       <c t="s" r="A52">
         <v>75</v>
       </c>
       <c t="s" r="B52">
         <v>65</v>
       </c>
-      <c t="s" r="C52">
+      <c t="n" r="C52">
+        <v>102</v>
+      </c>
+      <c t="s" r="D52">
         <v>11</v>
       </c>
-      <c t="n" r="D52">
+      <c t="n" r="E52">
         <v>30000.0</v>
       </c>
-      <c t="s" r="E52">
+      <c t="s" r="F52">
         <v>74</v>
       </c>
-      <c t="s" r="F52">
+      <c t="s" r="G52">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="53">
+      <c t="s" r="A53">
+        <v>98</v>
+      </c>
+      <c t="s" r="B53">
+        <v>120</v>
+      </c>
+      <c t="n" r="C53">
+        <v>102</v>
+      </c>
+      <c t="s" r="D53">
+        <v>11</v>
+      </c>
+      <c t="n" r="E53">
+        <v>46500.0</v>
+      </c>
+      <c t="s" r="F53">
+        <v>94</v>
+      </c>
+      <c t="s" r="G53">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="54">
+      <c t="s" r="A54">
         <v>100</v>
       </c>
-    </row>
-    <row spans="1:7" r="53">
-      <c t="s" r="A53">
-        <v>97</v>
-      </c>
-      <c t="s" r="B53">
-        <v>119</v>
-      </c>
-      <c t="s" r="C53">
-        <v>11</v>
-      </c>
-      <c t="n" r="D53">
-        <v>46500.0</v>
-      </c>
-      <c t="s" r="E53">
-        <v>93</v>
-      </c>
-      <c t="s" r="F53">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="54">
-      <c t="s" r="A54">
-        <v>99</v>
-      </c>
       <c t="s" r="B54">
-        <v>121</v>
-      </c>
-      <c t="s" r="C54">
+        <v>122</v>
+      </c>
+      <c t="n" r="C54">
+        <v>102</v>
+      </c>
+      <c t="s" r="D54">
         <v>18</v>
       </c>
-      <c t="n" r="D54">
+      <c t="n" r="E54">
         <v>30000.0</v>
       </c>
-      <c t="s" r="E54">
-        <v>93</v>
-      </c>
       <c t="s" r="F54">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="55">
+        <v>94</v>
+      </c>
+      <c t="s" r="G54">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="55">
       <c t="s" r="A55">
         <v>71</v>
       </c>
       <c t="s" r="B55">
-        <v>120</v>
-      </c>
-      <c t="s" r="C55">
+        <v>121</v>
+      </c>
+      <c t="n" r="C55">
+        <v>102</v>
+      </c>
+      <c t="s" r="D55">
         <v>18</v>
       </c>
-      <c t="n" r="D55">
+      <c t="n" r="E55">
         <v>26000.0</v>
       </c>
-      <c t="s" r="E55">
-        <v>93</v>
-      </c>
       <c t="s" r="F55">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="56">
+        <v>94</v>
+      </c>
+      <c t="s" r="G55">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="56">
       <c t="s" r="A56">
+        <v>97</v>
+      </c>
+      <c t="s" r="B56">
+        <v>121</v>
+      </c>
+      <c t="n" r="C56">
+        <v>102</v>
+      </c>
+      <c t="s" r="D56">
+        <v>20</v>
+      </c>
+      <c t="n" r="E56">
+        <v>26000.0</v>
+      </c>
+      <c t="s" r="F56">
+        <v>94</v>
+      </c>
+      <c t="s" r="G56">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="57">
+      <c t="s" r="A57">
         <v>96</v>
       </c>
-      <c t="s" r="B56">
-        <v>120</v>
-      </c>
-      <c t="s" r="C56">
+      <c t="s" r="B57">
+        <v>121</v>
+      </c>
+      <c t="n" r="C57">
+        <v>102</v>
+      </c>
+      <c t="s" r="D57">
         <v>20</v>
       </c>
-      <c t="n" r="D56">
+      <c t="n" r="E57">
         <v>26000.0</v>
       </c>
-      <c t="s" r="E56">
-        <v>93</v>
-      </c>
-      <c t="s" r="F56">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="57">
-      <c t="s" r="A57">
-        <v>95</v>
-      </c>
-      <c t="s" r="B57">
-        <v>120</v>
-      </c>
-      <c t="s" r="C57">
-        <v>20</v>
-      </c>
-      <c t="n" r="D57">
-        <v>26000.0</v>
-      </c>
-      <c t="s" r="E57">
-        <v>93</v>
-      </c>
       <c t="s" r="F57">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="58">
+        <v>94</v>
+      </c>
+      <c t="s" r="G57">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="58">
       <c t="s" r="A58">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="B58">
         <v>60</v>
       </c>
-      <c t="s" r="C58">
+      <c t="n" r="C58">
+        <v>102</v>
+      </c>
+      <c t="s" r="D58">
         <v>17</v>
       </c>
-      <c t="n" r="D58">
+      <c t="n" r="E58">
         <v>116250.0</v>
       </c>
-      <c t="s" r="E58">
-        <v>93</v>
-      </c>
       <c t="s" r="F58">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="59">
+        <v>94</v>
+      </c>
+      <c t="s" r="G58">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="59">
       <c t="s" r="A59">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="B59">
-        <v>87</v>
-      </c>
-      <c t="s" r="C59">
+        <v>88</v>
+      </c>
+      <c t="n" r="C59">
+        <v>102</v>
+      </c>
+      <c t="s" r="D59">
         <v>11</v>
       </c>
-      <c t="n" r="D59">
+      <c t="n" r="E59">
         <v>15000.0</v>
       </c>
-      <c t="s" r="E59">
-        <v>106</v>
-      </c>
       <c t="s" r="F59">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="60">
+        <v>107</v>
+      </c>
+      <c t="s" r="G59">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="60">
       <c t="s" r="A60">
         <v>31</v>
       </c>
       <c t="s" r="B60">
         <v>68</v>
       </c>
-      <c t="s" r="C60">
+      <c t="n" r="C60">
+        <v>102</v>
+      </c>
+      <c t="s" r="D60">
         <v>11</v>
       </c>
-      <c t="n" r="D60">
+      <c t="n" r="E60">
         <v>148750.0</v>
       </c>
-      <c t="s" r="E60">
-        <v>106</v>
-      </c>
       <c t="s" r="F60">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="61">
+        <v>107</v>
+      </c>
+      <c t="s" r="G60">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="61">
       <c t="s" r="A61">
         <v>25</v>
       </c>
       <c t="s" r="B61">
         <v>66</v>
       </c>
-      <c t="s" r="C61">
+      <c t="n" r="C61">
+        <v>102</v>
+      </c>
+      <c t="s" r="D61">
         <v>11</v>
       </c>
-      <c t="n" r="D61">
+      <c t="n" r="E61">
         <v>173750.0</v>
       </c>
-      <c t="s" r="E61">
-        <v>106</v>
-      </c>
       <c t="s" r="F61">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="62">
+        <v>107</v>
+      </c>
+      <c t="s" r="G61">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="62">
       <c t="s" r="A62">
         <v>32</v>
       </c>
       <c t="s" r="B62">
         <v>67</v>
       </c>
-      <c t="s" r="C62">
+      <c t="n" r="C62">
+        <v>102</v>
+      </c>
+      <c t="s" r="D62">
         <v>11</v>
       </c>
-      <c t="n" r="D62">
+      <c t="n" r="E62">
         <v>145000.0</v>
       </c>
-      <c t="s" r="E62">
-        <v>106</v>
-      </c>
       <c t="s" r="F62">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="63">
+        <v>107</v>
+      </c>
+      <c t="s" r="G62">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="63">
       <c t="s" r="A63">
         <v>73</v>
       </c>
       <c t="s" r="B63">
         <v>61</v>
       </c>
-      <c t="s" r="C63">
+      <c t="n" r="C63">
+        <v>102</v>
+      </c>
+      <c t="s" r="D63">
         <v>11</v>
       </c>
-      <c t="n" r="D63">
+      <c t="n" r="E63">
         <v>148750.0</v>
       </c>
-      <c t="s" r="E63">
-        <v>106</v>
-      </c>
       <c t="s" r="F63">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="64">
+        <v>107</v>
+      </c>
+      <c t="s" r="G63">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="64">
       <c t="s" r="A64">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="B64">
         <v>44</v>
       </c>
-      <c t="s" r="C64">
+      <c t="n" r="C64">
+        <v>102</v>
+      </c>
+      <c t="s" r="D64">
         <v>17</v>
       </c>
-      <c t="n" r="D64">
+      <c t="n" r="E64">
         <v>20000.0</v>
       </c>
-      <c t="s" r="E64">
-        <v>106</v>
-      </c>
       <c t="s" r="F64">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="65">
+        <v>107</v>
+      </c>
+      <c t="s" r="G64">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="65">
       <c t="s" r="A65">
         <v>1</v>
       </c>
       <c t="s" r="B65">
-        <v>118</v>
-      </c>
-      <c t="s" r="C65">
+        <v>119</v>
+      </c>
+      <c t="n" r="C65">
+        <v>102</v>
+      </c>
+      <c t="s" r="D65">
         <v>11</v>
       </c>
-      <c t="n" r="D65">
+      <c t="n" r="E65">
         <v>908808.0</v>
       </c>
-      <c t="s" r="E65">
-        <v>79</v>
-      </c>
       <c t="s" r="F65">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="66">
+        <v>80</v>
+      </c>
+      <c t="s" r="G65">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="66">
       <c t="s" r="A66">
         <v>4</v>
       </c>
       <c t="s" r="B66">
-        <v>118</v>
-      </c>
-      <c t="s" r="C66">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c t="n" r="C66">
+        <v>102</v>
       </c>
       <c t="n" r="D66">
-        <v>0.0</v>
-      </c>
-      <c t="s" r="E66">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c t="n" r="E66">
+        <v>908808.0</v>
       </c>
       <c t="s" r="F66">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="67">
+        <v>80</v>
+      </c>
+      <c t="s" r="G66">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="67">
       <c t="s" r="A67">
+        <v>81</v>
+      </c>
+      <c t="s" r="B67">
+        <v>119</v>
+      </c>
+      <c t="n" r="C67">
+        <v>102</v>
+      </c>
+      <c t="s" r="D67">
+        <v>20</v>
+      </c>
+      <c t="n" r="E67">
+        <v>30000.0</v>
+      </c>
+      <c t="s" r="F67">
         <v>80</v>
       </c>
-      <c t="s" r="B67">
-        <v>118</v>
-      </c>
-      <c t="s" r="C67">
-        <v>20</v>
-      </c>
-      <c t="n" r="D67">
-        <v>30000.0</v>
-      </c>
-      <c t="s" r="E67">
-        <v>79</v>
-      </c>
-      <c t="s" r="F67">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="68">
+      <c t="s" r="G67">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="68">
       <c t="s" r="A68">
         <v>54</v>
       </c>
       <c t="s" r="B68">
-        <v>113</v>
-      </c>
-      <c t="s" r="C68">
+        <v>114</v>
+      </c>
+      <c t="n" r="C68">
+        <v>102</v>
+      </c>
+      <c t="s" r="D68">
         <v>11</v>
       </c>
-      <c t="n" r="D68">
+      <c t="n" r="E68">
         <v>16000.0</v>
       </c>
-      <c t="s" r="E68">
-        <v>91</v>
-      </c>
       <c t="s" r="F68">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="69">
+        <v>92</v>
+      </c>
+      <c t="s" r="G68">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="69">
       <c t="s" r="A69">
         <v>27</v>
       </c>
       <c t="s" r="B69">
-        <v>110</v>
-      </c>
-      <c t="s" r="C69">
+        <v>111</v>
+      </c>
+      <c t="n" r="C69">
+        <v>102</v>
+      </c>
+      <c t="s" r="D69">
         <v>18</v>
       </c>
-      <c t="n" r="D69">
+      <c t="n" r="E69">
         <v>242500.0</v>
       </c>
-      <c t="s" r="E69">
-        <v>92</v>
-      </c>
       <c t="s" r="F69">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="70">
+        <v>93</v>
+      </c>
+      <c t="s" r="G69">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="70">
       <c t="s" r="A70">
         <v>27</v>
       </c>
       <c t="s" r="B70">
         <v>47</v>
       </c>
-      <c t="s" r="C70">
+      <c t="n" r="C70">
+        <v>102</v>
+      </c>
+      <c t="s" r="D70">
         <v>18</v>
       </c>
-      <c t="n" r="D70">
+      <c t="n" r="E70">
         <v>237666.0</v>
       </c>
-      <c t="s" r="E70">
-        <v>92</v>
-      </c>
       <c t="s" r="F70">
-        <v>100</v>
-      </c>
-    </row>
-    <row spans="1:7" r="71">
+        <v>93</v>
+      </c>
+      <c t="s" r="G70">
+        <v>101</v>
+      </c>
+    </row>
+    <row spans="1:8" r="71">
       <c t="s" r="A71">
         <v>55</v>
       </c>
       <c t="s" r="B71">
-        <v>118</v>
-      </c>
-      <c t="s" r="C71">
+        <v>119</v>
+      </c>
+      <c t="n" r="C71">
+        <v>102</v>
+      </c>
+      <c t="s" r="D71">
         <v>20</v>
       </c>
-      <c t="n" r="D71">
+      <c t="n" r="E71">
         <v>24000.0</v>
       </c>
-      <c t="s" r="E71">
-        <v>92</v>
-      </c>
       <c t="s" r="F71">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c t="s" r="G71">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102Q2廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102Q2廣宣彙整表.xlsx
@@ -786,7 +786,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
@@ -806,7 +806,7 @@
     <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c t="s" r="A1" s="1">
         <v>26</v>
       </c>
@@ -832,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>7</v>
       </c>
@@ -855,7 +855,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>56</v>
       </c>
@@ -878,7 +878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>24</v>
       </c>
@@ -901,7 +901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>24</v>
       </c>
@@ -924,7 +924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>91</v>
       </c>
@@ -947,7 +947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>91</v>
       </c>
@@ -970,7 +970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>91</v>
       </c>
@@ -993,7 +993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>110</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>110</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>29</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>29</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>29</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>29</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>29</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>105</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>95</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>82</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>102</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>30</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>34</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>79</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>79</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>79</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>36</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>36</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>36</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>6</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>2</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>2</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>2</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>35</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>83</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>83</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>3</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>3</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>0</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>104</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>103</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="41">
+    <row r="41" spans="1:8">
       <c t="s" r="A41">
         <v>103</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="42">
+    <row r="42" spans="1:8">
       <c t="s" r="A42">
         <v>109</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="43">
+    <row r="43" spans="1:8">
       <c t="s" r="A43">
         <v>109</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="44">
+    <row r="44" spans="1:8">
       <c t="s" r="A44">
         <v>109</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="45">
+    <row r="45" spans="1:8">
       <c t="s" r="A45">
         <v>109</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="46">
+    <row r="46" spans="1:8">
       <c t="s" r="A46">
         <v>109</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="47">
+    <row r="47" spans="1:8">
       <c t="s" r="A47">
         <v>89</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="48">
+    <row r="48" spans="1:8">
       <c t="s" r="A48">
         <v>76</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="49">
+    <row r="49" spans="1:8">
       <c t="s" r="A49">
         <v>33</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="50">
+    <row r="50" spans="1:8">
       <c t="s" r="A50">
         <v>33</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="51">
+    <row r="51" spans="1:8">
       <c t="s" r="A51">
         <v>75</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="52">
+    <row r="52" spans="1:8">
       <c t="s" r="A52">
         <v>75</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="53">
+    <row r="53" spans="1:8">
       <c t="s" r="A53">
         <v>98</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="54">
+    <row r="54" spans="1:8">
       <c t="s" r="A54">
         <v>100</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="55">
+    <row r="55" spans="1:8">
       <c t="s" r="A55">
         <v>71</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="56">
+    <row r="56" spans="1:8">
       <c t="s" r="A56">
         <v>97</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="57">
+    <row r="57" spans="1:8">
       <c t="s" r="A57">
         <v>96</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="58">
+    <row r="58" spans="1:8">
       <c t="s" r="A58">
         <v>99</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="59">
+    <row r="59" spans="1:8">
       <c t="s" r="A59">
         <v>106</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="60">
+    <row r="60" spans="1:8">
       <c t="s" r="A60">
         <v>31</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="61">
+    <row r="61" spans="1:8">
       <c t="s" r="A61">
         <v>25</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="62">
+    <row r="62" spans="1:8">
       <c t="s" r="A62">
         <v>32</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="63">
+    <row r="63" spans="1:8">
       <c t="s" r="A63">
         <v>73</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="64">
+    <row r="64" spans="1:8">
       <c t="s" r="A64">
         <v>130</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="65">
+    <row r="65" spans="1:8">
       <c t="s" r="A65">
         <v>1</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="66">
+    <row r="66" spans="1:8">
       <c t="s" r="A66">
         <v>4</v>
       </c>
@@ -2314,11 +2314,11 @@
       <c t="n" r="C66">
         <v>102</v>
       </c>
-      <c t="n" r="D66">
-        <v>0</v>
+      <c t="s" r="D66">
+        <v>11</v>
       </c>
       <c t="n" r="E66">
-        <v>908808.0</v>
+        <v>0.0</v>
       </c>
       <c t="s" r="F66">
         <v>80</v>
@@ -2327,7 +2327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="67">
+    <row r="67" spans="1:8">
       <c t="s" r="A67">
         <v>81</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="68">
+    <row r="68" spans="1:8">
       <c t="s" r="A68">
         <v>54</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="69">
+    <row r="69" spans="1:8">
       <c t="s" r="A69">
         <v>27</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="70">
+    <row r="70" spans="1:8">
       <c t="s" r="A70">
         <v>27</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="71">
+    <row r="71" spans="1:8">
       <c t="s" r="A71">
         <v>55</v>
       </c>
